--- a/tepe24/TEPE_2024_RFseq_mastermixcockatils.xlsx
+++ b/tepe24/TEPE_2024_RFseq_mastermixcockatils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/neotoma_atkins_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/tepe24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2D4EB-6790-F642-BC0D-B7076F5DF0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8923947-48C4-3D46-82F4-8A4ED2E910AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="500" windowWidth="27260" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <v>420</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>482.99999999999994</v>
+        <v>546.25</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>105</v>
+        <v>118.75</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>50.4</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>117.60000000000001</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>1260</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>105</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>30.24</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>42</v>
+        <v>47.5</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>21</v>
+        <v>23.75</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>21</v>
+        <v>23.75</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>70.350000000000009</v>
+        <v>79.5625</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>604.59</v>
+        <v>683.76250000000005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>50.3825</v>
+        <v>56.980208333333337</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1242,10 +1242,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>4061.4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+        <v>4593.25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1254,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>1680</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,10 +1266,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1287,10 +1278,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>168</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,11 +1290,9 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>558.6</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>45</v>
-      </c>
+        <v>631.75</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1317,10 +1303,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,10 +1315,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1336,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>6783</v>
+        <v>7671.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,10 +1379,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>178.5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+        <v>201.875</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1414,10 +1391,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>168</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,10 +1403,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>558.6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
+        <v>631.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,7 +1412,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>905.1</v>
+        <v>1023.625</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1453,15 +1424,15 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>75.424999999999997</v>
+        <v>85.302083333333329</v>
       </c>
       <c r="D48" s="1">
         <f>C48 * (3/7)</f>
-        <v>32.324999999999996</v>
+        <v>36.558035714285708</v>
       </c>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>43.099999999999994</v>
+        <v>48.744047619047613</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,7 +1454,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>525</v>
+        <v>593.75</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1504,7 +1475,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>273</v>
+        <v>308.75</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1523,7 +1494,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>273</v>
+        <v>308.75</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1542,7 +1513,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>4196.6399999999994</v>
+        <v>4746.2</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1561,7 +1532,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>50.4</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1580,7 +1551,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>117.60000000000001</v>
+        <v>133</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1599,7 +1570,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1618,7 +1589,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>70.350000000000009</v>
+        <v>79.5625</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1636,7 +1607,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>1858.5</v>
+        <v>2101.875</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1657,7 +1628,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1637,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1675,7 +1646,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1117.2</v>
+        <v>1263.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1655,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1693,7 +1664,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>63</v>
+        <v>71.25</v>
       </c>
     </row>
   </sheetData>

--- a/tepe24/TEPE_2024_RFseq_mastermixcockatils.xlsx
+++ b/tepe24/TEPE_2024_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/tepe24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8923947-48C4-3D46-82F4-8A4ED2E910AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B62BA7-8E73-5B48-81D2-CE57B5DDB40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="500" windowWidth="27260" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,6 +1244,9 @@
         <f>B29*E1</f>
         <v>4593.25</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -1256,6 +1259,9 @@
         <f>4*E1</f>
         <v>1900</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1268,6 +1274,9 @@
         <f>B31*E1</f>
         <v>190</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1280,6 +1289,9 @@
         <f>B32*E1</f>
         <v>190</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1292,7 +1304,9 @@
         <f>B33*E1</f>
         <v>631.75</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1316,6 +1330,9 @@
       <c r="C35" s="23">
         <f>B35*E1</f>
         <v>71.25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
